--- a/worktime/worktime.xlsx
+++ b/worktime/worktime.xlsx
@@ -345,7 +345,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -371,7 +371,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>Earning</t>
+          <t>Per Hour</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Earning $</t>
         </is>
       </c>
     </row>
@@ -388,13 +393,14 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MBS</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1010101010101010</t>
-        </is>
+          <t>SMU</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="3">
@@ -412,6 +418,17 @@
         <is>
           <t>MBS</t>
         </is>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="E4" t="n">
+        <v>180</v>
       </c>
     </row>
   </sheetData>
